--- a/table2.xlsx
+++ b/table2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="table2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="table2">'table2'!$A$1:$D$51</definedName>
+    <definedName name="table2">'table2'!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Effect</t>
   </si>
@@ -224,6 +224,102 @@
   </si>
   <si>
     <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>9-11th Grade (Includes 12th grade with no diploma)</t>
+  </si>
+  <si>
+    <t>College Graduate or above</t>
+  </si>
+  <si>
+    <t>High School Grad/GED or Equivalent</t>
+  </si>
+  <si>
+    <t>Less Than 9th Grade</t>
+  </si>
+  <si>
+    <t>Some College or AA degree</t>
+  </si>
+  <si>
+    <t>0-100%</t>
+  </si>
+  <si>
+    <t>100-199%</t>
+  </si>
+  <si>
+    <t>200%+</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mexican American</t>
+  </si>
+  <si>
+    <t>Non-Hispanic Black</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
+    <t>Other Hispanic</t>
+  </si>
+  <si>
+    <t>Other Race - Including Multi-Racial</t>
+  </si>
+  <si>
+    <t>ntrol Missing</t>
+  </si>
+  <si>
+    <t>ntrol N/A (Male)</t>
+  </si>
+  <si>
+    <t>ntrol No</t>
+  </si>
+  <si>
+    <t>ntrol Yes</t>
+  </si>
+  <si>
+    <t>_cat 3+ ng/mL</t>
+  </si>
+  <si>
+    <t>_cat &lt;3 ng/mL</t>
+  </si>
+  <si>
+    <t>ep No</t>
+  </si>
+  <si>
+    <t>ep Yes</t>
+  </si>
+  <si>
+    <t>eep No</t>
+  </si>
+  <si>
+    <t>eep Yes</t>
+  </si>
+  <si>
+    <t>d Missing</t>
+  </si>
+  <si>
+    <t>d No</t>
+  </si>
+  <si>
+    <t>d Yes</t>
+  </si>
+  <si>
+    <t>exp_estimate</t>
   </si>
 </sst>
 </file>
@@ -292,9 +388,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAA1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -304,9 +400,10 @@
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -319,260 +416,317 @@
       <c r="D1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>4.4000978672709376e-001</v>
+        <v>-1.5800207433195592</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>.20597082564191388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>3.0965913659904008e-001</v>
+        <v>-2.0219182374204845</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>.1324012443088248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>4.130360355731656e-001</v>
+        <v>-1.640805194535589</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>.19382391348629144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>4.3793037794309776e-001</v>
+        <v>-1.5904691332565257</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>.2038299658849701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>3.9242336486993952e-001</v>
+        <v>-1.743430984554211</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>.17491922473584842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>4.4788442885645992e-001</v>
+        <v>-1.6409825400950218</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>.19378954272376392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>4.0908815439493488e-001</v>
+        <v>-1.6423768566307722</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>.1935195270472952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>3.5851010276317384e-001</v>
+        <v>-1.833573879795681</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>.15984129219753143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>4.0547504092767824e-001</v>
+        <v>-1.6912554073416448</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>.1842880221728388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C11">
-        <v>4.9476133241707776e-001</v>
+        <v>-1.4525587389982013</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>.2339708511781892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C12">
-        <v>3.3842027476555848e-001</v>
+        <v>-1.8989002235008285</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>.1497332017604846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>4.416089120817844e-001</v>
+        <v>-1.6233057754875664</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>.19724557055808828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>3.24831725762712e-001</v>
+        <v>-1.9070463703536646</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>.14851840777308084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C15">
-        <v>4.0157495210669344e-001</v>
+        <v>-1.6180827610346444</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>.19827848213178606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C16">
-        <v>4.9906557112167472e-001</v>
+        <v>-1.522607912578059</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>.21814224857765444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C17">
-        <v>3.7717799598252864e-001</v>
+        <v>-1.779968807284094</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>.16864340763245622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>3.841963615684636e-001</v>
+        <v>-1.726912616079236</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>.17783260080896857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>2.460371016002834e-001</v>
+        <v>-2.1932529746488303</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>.11155327777253495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -580,13 +734,16 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>3.1214897785156608e-001</v>
+        <v>-2.152619564473262</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>.11617941932736178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -594,13 +751,16 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>3.5326602039781344e-001</v>
+        <v>-1.98029409416184</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>.1380286379245838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -608,13 +768,16 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>3.305107908514684e-001</v>
+        <v>-1.9060596356826447</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>.14866502836122775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -622,13 +785,16 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>3.3816145174012492e-001</v>
+        <v>-1.8967331615072405</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>.15005803473066776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -636,13 +802,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>3.7110867368389776e-001</v>
+        <v>-1.7590877876552025</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>.17220187687542327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -650,13 +819,16 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>4.1304323205675048e-001</v>
+        <v>-1.6862771204385463</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>.18520774825067401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -664,13 +836,16 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>3.9089648983562328e-001</v>
+        <v>-1.7077692497635393</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>.18126970937797615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -678,13 +853,16 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>3.7146265494871392e-001</v>
+        <v>-1.658025486896768</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>.1905147829008466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -692,13 +870,16 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>4.5205734989945136e-001</v>
+        <v>-1.504766767943969</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>.22206908142089243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -706,13 +887,16 @@
         <v>37</v>
       </c>
       <c r="C29">
-        <v>4.5511898391270112e-001</v>
+        <v>-1.5553399773960823</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>.2111175952283209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -720,13 +904,16 @@
         <v>38</v>
       </c>
       <c r="C30">
-        <v>4.6615149843047488e-001</v>
+        <v>-1.4883956629187047</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>.2257345194460558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -734,13 +921,16 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>4.308811088606016e-001</v>
+        <v>-1.5454726123548628</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>.2132110812163136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -748,97 +938,118 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>4.6646622557116208e-001</v>
+        <v>-1.5433303973343977</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>.21366831476845946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C33">
-        <v>4.24733428298938e-001</v>
+        <v>-1.7062138838410728</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>.18155186948093988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C34">
-        <v>3.24831725762712e-001</v>
+        <v>-1.9070463703536646</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>.14851840777308084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C35">
-        <v>4.2950354584615968e-001</v>
+        <v>-1.6576575272455145</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>.1905848975528118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C36">
-        <v>5.7458942602835888e-001</v>
+        <v>-1.2064941997322796</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>.2992445341923408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C37">
-        <v>4.0320640444571968e-001</v>
+        <v>-1.7263405832988739</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>.1779343559869223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C38">
-        <v>3.7729194839251184e-001</v>
+        <v>-1.7757671779129203</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>.16935347540341122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -846,13 +1057,16 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>4.1676188862562952e-001</v>
+        <v>-1.6831835347816093</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>.18578159144309772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -860,13 +1074,16 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>3.24831725762712e-001</v>
+        <v>-1.9070463703536646</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>.14851840777308084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -874,13 +1091,16 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>4.3646158511522048e-001</v>
+        <v>-1.6352298292339107</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>.19490757069347936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -888,13 +1108,16 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>6.171363946173152e-001</v>
+        <v>-1.2097903091532884</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>.298259815226261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -902,13 +1125,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>2.7953170425687688e-001</v>
+        <v>-2.11743594984831</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>.12033979052935298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -916,108 +1142,132 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>5.8683407580468712e-001</v>
+        <v>-1.0773206628727308</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>.3405066365866803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C45">
-        <v>3.7007476165686528e-001</v>
+        <v>-1.807395504655218</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>.16408092878777195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C46">
-        <v>3.9893239189163152e-001</v>
+        <v>-1.7172157021781307</v>
       </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>.1795654161302604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C47">
-        <v>3.7430583548502192e-001</v>
+        <v>-1.7897044289555046</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>.16700952555250428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C48">
-        <v>4.4894617866781552e-001</v>
+        <v>-1.5880890122241196</v>
       </c>
       <c r="D48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>.20431568367807684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C49">
-        <v>5.1068268876384088e-001</v>
+        <v>-1.3786286147946523</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>.2519238008451491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>3.7574689101038272e-001</v>
+        <v>-1.7856349907934517</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>.16769054523312726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>4.3419790414009328e-001</v>
+        <v>-1.6597536110576852</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
+      </c>
+      <c r="E51">
+        <v>.1901858340156267</v>
       </c>
     </row>
   </sheetData>

--- a/table2.xlsx
+++ b/table2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Effect</t>
   </si>
@@ -320,6 +320,72 @@
   </si>
   <si>
     <t>exp_estimate</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>birth_control</t>
+  </si>
+  <si>
+    <t>N/A (Male)</t>
+  </si>
+  <si>
+    <t>cotinine_cat</t>
+  </si>
+  <si>
+    <t>3+ ng/mL</t>
+  </si>
+  <si>
+    <t>&lt;3 ng/mL</t>
+  </si>
+  <si>
+    <t>poor_sleep</t>
+  </si>
+  <si>
+    <t>short_sleep</t>
+  </si>
+  <si>
+    <t>sleep_med</t>
   </si>
 </sst>
 </file>
@@ -396,7 +462,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -405,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -428,13 +494,13 @@
         <v>69</v>
       </c>
       <c r="C2">
-        <v>-1.5800207433195592</v>
+        <v>-1.5800207433195559</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2">
-        <v>.20597082564191388</v>
+        <v>.20597082564191455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,13 +511,13 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>-2.0219182374204845</v>
+        <v>-2.021918237420485</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
       <c r="E3">
-        <v>.1324012443088248</v>
+        <v>.13240124430882474</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,13 +528,13 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>-1.640805194535589</v>
+        <v>-1.640805194535592</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4">
-        <v>.19382391348629144</v>
+        <v>.19382391348629088</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,13 +545,13 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>-1.5904691332565257</v>
+        <v>-1.590469133256529</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5">
-        <v>.2038299658849701</v>
+        <v>.20382996588496943</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,13 +562,13 @@
         <v>73</v>
       </c>
       <c r="C6">
-        <v>-1.743430984554211</v>
+        <v>-1.7434309845542093</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6">
-        <v>.17491922473584842</v>
+        <v>.17491922473584873</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,13 +579,13 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>-1.6409825400950218</v>
+        <v>-1.6409825400950255</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
       </c>
       <c r="E7">
-        <v>.19378954272376392</v>
+        <v>.1937895427237632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +596,13 @@
         <v>75</v>
       </c>
       <c r="C8">
-        <v>-1.6423768566307722</v>
+        <v>-1.6423768566307746</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="E8">
-        <v>.1935195270472952</v>
+        <v>.1935195270472947</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +613,13 @@
         <v>76</v>
       </c>
       <c r="C9">
-        <v>-1.833573879795681</v>
+        <v>-1.8335738797956798</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
       </c>
       <c r="E9">
-        <v>.15984129219753143</v>
+        <v>.15984129219753163</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,13 +630,13 @@
         <v>77</v>
       </c>
       <c r="C10">
-        <v>-1.6912554073416448</v>
+        <v>-1.6912554073416481</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10">
-        <v>.1842880221728388</v>
+        <v>.18428802217283818</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,13 +647,13 @@
         <v>78</v>
       </c>
       <c r="C11">
-        <v>-1.4525587389982013</v>
+        <v>-1.4525587389981984</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11">
-        <v>.2339708511781892</v>
+        <v>.2339708511781899</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,13 +664,13 @@
         <v>79</v>
       </c>
       <c r="C12">
-        <v>-1.8989002235008285</v>
+        <v>-1.8989002235008299</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12">
-        <v>.1497332017604846</v>
+        <v>.1497332017604844</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,13 +681,13 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>-1.6233057754875664</v>
+        <v>-1.6233057754875642</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
       </c>
       <c r="E13">
-        <v>.19724557055808828</v>
+        <v>.1972455705580887</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,13 +698,13 @@
         <v>81</v>
       </c>
       <c r="C14">
-        <v>-1.9070463703536646</v>
+        <v>-1.9070463703536606</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14">
-        <v>.14851840777308084</v>
+        <v>.14851840777308142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,13 +715,13 @@
         <v>82</v>
       </c>
       <c r="C15">
-        <v>-1.6180827610346444</v>
+        <v>-1.618082761034647</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15">
-        <v>.19827848213178606</v>
+        <v>.19827848213178556</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,13 +732,13 @@
         <v>83</v>
       </c>
       <c r="C16">
-        <v>-1.522607912578059</v>
+        <v>-1.5226079125780527</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16">
-        <v>.21814224857765444</v>
+        <v>.2181422485776558</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,13 +749,13 @@
         <v>84</v>
       </c>
       <c r="C17">
-        <v>-1.779968807284094</v>
+        <v>-1.779968807284091</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17">
-        <v>.16864340763245622</v>
+        <v>.16864340763245675</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,13 +783,13 @@
         <v>86</v>
       </c>
       <c r="C19">
-        <v>-2.1932529746488303</v>
+        <v>-2.1932529746488307</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19">
-        <v>.11155327777253495</v>
+        <v>.1115532777725349</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,16 +797,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C20">
-        <v>-2.152619564473262</v>
+        <v>-2.1526195644732598</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20">
-        <v>.11617941932736178</v>
+        <v>.11617941932736205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,16 +814,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C21">
-        <v>-1.98029409416184</v>
+        <v>-1.9802940941618412</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21">
-        <v>.1380286379245838</v>
+        <v>.13802863792458364</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,16 +831,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>-1.9060596356826447</v>
+        <v>-1.906059635682643</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22">
-        <v>.14866502836122775</v>
+        <v>.148665028361228</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,16 +848,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C23">
-        <v>-1.8967331615072405</v>
+        <v>-1.8967331615072418</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23">
-        <v>.15005803473066776</v>
+        <v>.15005803473066753</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,16 +865,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="C24">
-        <v>-1.7590877876552025</v>
+        <v>-1.7590877876552038</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24">
-        <v>.17220187687542327</v>
+        <v>.17220187687542304</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,16 +882,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>-1.6862771204385463</v>
+        <v>-1.6862771204385452</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25">
-        <v>.18520774825067401</v>
+        <v>.18520774825067424</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,16 +899,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>-1.7077692497635393</v>
+        <v>-1.7077692497635355</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
       <c r="E26">
-        <v>.18126970937797615</v>
+        <v>.18126970937797685</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,16 +916,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C27">
-        <v>-1.658025486896768</v>
+        <v>-1.6580254868967692</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
       <c r="E27">
-        <v>.1905147829008466</v>
+        <v>.19051478290084642</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,16 +933,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C28">
-        <v>-1.504766767943969</v>
+        <v>-1.5047667679439711</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28">
-        <v>.22206908142089243</v>
+        <v>.22206908142089196</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,16 +950,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C29">
-        <v>-1.5553399773960823</v>
+        <v>-1.555339977396083</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
       <c r="E29">
-        <v>.2111175952283209</v>
+        <v>.21111759522832077</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,16 +967,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>-1.4883956629187047</v>
+        <v>-1.488395662918704</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
       <c r="E30">
-        <v>.2257345194460558</v>
+        <v>.22573451944605594</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -918,16 +984,16 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C31">
-        <v>-1.5454726123548628</v>
+        <v>-1.5454726123548632</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31">
-        <v>.2132110812163136</v>
+        <v>.2132110812163135</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,75 +1001,75 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C32">
-        <v>-1.5433303973343977</v>
+        <v>-1.5433303973344006</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
       <c r="E32">
-        <v>.21366831476845946</v>
+        <v>.21366831476845885</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>-1.7062138838410728</v>
+        <v>-1.7062138838410743</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33">
-        <v>.18155186948093988</v>
+        <v>.1815518694809396</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C34">
-        <v>-1.9070463703536646</v>
+        <v>-1.9070463703536606</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="E34">
-        <v>.14851840777308084</v>
+        <v>.14851840777308142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>-1.6576575272455145</v>
+        <v>-1.65765752724551</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
       <c r="E35">
-        <v>.1905848975528118</v>
+        <v>.19058489755281266</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>-1.2064941997322796</v>
@@ -1017,10 +1083,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C37">
         <v>-1.7263405832988739</v>
@@ -1034,19 +1100,19 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C38">
-        <v>-1.7757671779129203</v>
+        <v>-1.7757671779129143</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
       <c r="E38">
-        <v>.16935347540341122</v>
+        <v>.16935347540341225</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,16 +1120,16 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>-1.6831835347816093</v>
+        <v>-1.6831835347816113</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
       <c r="E39">
-        <v>.18578159144309772</v>
+        <v>.18578159144309736</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,16 +1137,16 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C40">
-        <v>-1.9070463703536646</v>
+        <v>-1.9070463703536606</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
       </c>
       <c r="E40">
-        <v>.14851840777308084</v>
+        <v>.14851840777308142</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1088,16 +1154,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>-1.6352298292339107</v>
+        <v>-1.6352298292339091</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41">
-        <v>.19490757069347936</v>
+        <v>.19490757069347966</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,16 +1171,16 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>-1.2097903091532884</v>
+        <v>-1.2097903091532887</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
       </c>
       <c r="E42">
-        <v>.298259815226261</v>
+        <v>.29825981522626094</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,16 +1188,16 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>-2.11743594984831</v>
+        <v>-2.1174359498482964</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
       <c r="E43">
-        <v>.12033979052935298</v>
+        <v>.12033979052935463</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,75 +1205,75 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>-1.0773206628727308</v>
+        <v>-1.077320662872732</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
       <c r="E44">
-        <v>.3405066365866803</v>
+        <v>.3405066365866798</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C45">
-        <v>-1.807395504655218</v>
+        <v>-1.807395504655211</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
       <c r="E45">
-        <v>.16408092878777195</v>
+        <v>.16408092878777306</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C46">
-        <v>-1.7172157021781307</v>
+        <v>-1.7172157021781318</v>
       </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
       <c r="E46">
-        <v>.1795654161302604</v>
+        <v>.17956541613026022</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C47">
-        <v>-1.7897044289555046</v>
+        <v>-1.7897044289554993</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
       <c r="E47">
-        <v>.16700952555250428</v>
+        <v>.16700952555250514</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C48">
         <v>-1.5880890122241196</v>
@@ -1221,53 +1287,53 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C49">
-        <v>-1.3786286147946523</v>
+        <v>-1.3786286147946516</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
       <c r="E49">
-        <v>.2519238008451491</v>
+        <v>.25192380084514926</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>-1.7856349907934517</v>
+        <v>-1.7856349907934523</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
       <c r="E50">
-        <v>.16769054523312726</v>
+        <v>.16769054523312715</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>-1.6597536110576852</v>
+        <v>-1.6597536110576874</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
       <c r="E51">
-        <v>.1901858340156267</v>
+        <v>.19018583401562628</v>
       </c>
     </row>
   </sheetData>

--- a/table2.xlsx
+++ b/table2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="table2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="table2">'table2'!$A$1:$E$51</definedName>
+    <definedName name="table2">'table2'!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="true"/>
 </workbook>
@@ -454,9 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:AAA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -494,13 +494,13 @@
         <v>69</v>
       </c>
       <c r="C2">
-        <v>-1.5800207433195559</v>
+        <v>-1.5800207433195556e+000</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2">
-        <v>.20597082564191455</v>
+        <v>2.0597082564191452e-001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,13 +511,13 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>-2.021918237420485</v>
+        <v>-2.0219182374204848e+000</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
       <c r="E3">
-        <v>.13240124430882474</v>
+        <v>1.3240124430882478e-001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,13 +528,13 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>-1.640805194535592</v>
+        <v>-1.640805194535592e+000</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4">
-        <v>.19382391348629088</v>
+        <v>1.9382391348629088e-001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>-1.590469133256529</v>
+        <v>-1.5904691332565286e+000</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5">
-        <v>.20382996588496943</v>
+        <v>2.0382996588496944e-001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,13 +562,13 @@
         <v>73</v>
       </c>
       <c r="C6">
-        <v>-1.7434309845542093</v>
+        <v>-1.743430984554209e+000</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6">
-        <v>.17491922473584873</v>
+        <v>1.749192247358487e-001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>-1.6409825400950255</v>
+        <v>-1.6409825400950252e+000</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
       </c>
       <c r="E7">
-        <v>.1937895427237632</v>
+        <v>1.937895427237632e-001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,13 +596,13 @@
         <v>75</v>
       </c>
       <c r="C8">
-        <v>-1.6423768566307746</v>
+        <v>-1.6423768566307738e+000</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="E8">
-        <v>.1935195270472947</v>
+        <v>1.9351952704729464e-001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,13 +613,13 @@
         <v>76</v>
       </c>
       <c r="C9">
-        <v>-1.8335738797956798</v>
+        <v>-1.83357387979568e+000</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
       </c>
       <c r="E9">
-        <v>.15984129219753163</v>
+        <v>1.5984129219753162e-001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,16 +627,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>-1.6912554073416481</v>
+        <v>-1.613355893323665e+000</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10">
-        <v>.18428802217283818</v>
+        <v>1.9921793687669904e-001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,33 +644,33 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>-1.4525587389981984</v>
+        <v>-1.89890022350083e+000</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
       <c r="E11">
-        <v>.2339708511781899</v>
+        <v>1.4973320176048442e-001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>-1.8989002235008299</v>
+        <v>-1.6233057754875644e+000</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12">
-        <v>.1497332017604844</v>
+        <v>1.9724557055808872e-001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,33 +678,33 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>-1.6233057754875642</v>
+        <v>-1.9070463703536604e+000</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
       </c>
       <c r="E13">
-        <v>.1972455705580887</v>
+        <v>1.4851840777308144e-001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14">
-        <v>-1.9070463703536606</v>
+        <v>-1.618082761034647e+000</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14">
-        <v>.14851840777308142</v>
+        <v>1.9827848213178552e-001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,16 +712,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>-1.618082761034647</v>
+        <v>-1.5226079125780528e+000</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15">
-        <v>.19827848213178556</v>
+        <v>2.181422485776558e-001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,16 +729,16 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>-1.5226079125780527</v>
+        <v>-1.7799688072840912e+000</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16">
-        <v>.2181422485776558</v>
+        <v>1.6864340763245676e-001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,16 +746,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17">
-        <v>-1.779968807284091</v>
+        <v>-1.7269126160792356e+000</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17">
-        <v>.16864340763245675</v>
+        <v>1.7783260080896852e-001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,33 +763,33 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>-1.726912616079236</v>
+        <v>-2.1932529746488304e+000</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18">
-        <v>.17783260080896857</v>
+        <v>1.1155327777253492e-001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C19">
-        <v>-2.1932529746488307</v>
+        <v>-2.1526195644732596e+000</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19">
-        <v>.1115532777725349</v>
+        <v>1.1617941932736202e-001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,16 +797,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>-2.1526195644732598</v>
+        <v>-1.9802940941618412e+000</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20">
-        <v>.11617941932736205</v>
+        <v>1.3802863792458362e-001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,16 +814,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21">
-        <v>-1.9802940941618412</v>
+        <v>-1.9060596356826432e+000</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21">
-        <v>.13802863792458364</v>
+        <v>1.48665028361228e-001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,16 +831,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22">
-        <v>-1.906059635682643</v>
+        <v>-1.896733161507242e+000</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22">
-        <v>.148665028361228</v>
+        <v>1.5005803473066748e-001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,16 +848,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>-1.8967331615072418</v>
+        <v>-1.7590877876552048e+000</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23">
-        <v>.15005803473066753</v>
+        <v>1.7220187687542304e-001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -865,16 +865,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>-1.7590877876552038</v>
+        <v>-1.6862771204385452e+000</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24">
-        <v>.17220187687542304</v>
+        <v>1.8520774825067424e-001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,16 +882,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25">
-        <v>-1.6862771204385452</v>
+        <v>-1.707769249763535e+000</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25">
-        <v>.18520774825067424</v>
+        <v>1.8126970937797684e-001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,16 +899,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>-1.7077692497635355</v>
+        <v>-1.6580254868967696e+000</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
       <c r="E26">
-        <v>.18126970937797685</v>
+        <v>1.905147829008464e-001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,16 +916,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>-1.6580254868967692</v>
+        <v>-1.5047667679439712e+000</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
       <c r="E27">
-        <v>.19051478290084642</v>
+        <v>2.22069081420892e-001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,16 +933,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28">
-        <v>-1.5047667679439711</v>
+        <v>-1.5553399773960828e+000</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28">
-        <v>.22206908142089196</v>
+        <v>2.1111759522832076e-001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,16 +950,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29">
-        <v>-1.555339977396083</v>
+        <v>-1.4883956629187036e+000</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
       <c r="E29">
-        <v>.21111759522832077</v>
+        <v>2.2573451944605596e-001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,16 +967,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30">
-        <v>-1.488395662918704</v>
+        <v>-1.545472612354863e+000</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
       <c r="E30">
-        <v>.22573451944605594</v>
+        <v>2.1321108121631348e-001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,33 +984,33 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31">
-        <v>-1.5454726123548632</v>
+        <v>-1.5433303973344004e+000</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31">
-        <v>.2132110812163135</v>
+        <v>2.1366831476845888e-001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C32">
-        <v>-1.5433303973344006</v>
+        <v>-1.7876123284041596e+000</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
       <c r="E32">
-        <v>.21366831476845885</v>
+        <v>1.6735929201872698e-001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,322 +1018,220 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33">
-        <v>-1.7062138838410743</v>
+        <v>-1.2064941997322798e+000</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33">
-        <v>.1815518694809396</v>
+        <v>2.992445341923408e-001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C34">
-        <v>-1.9070463703536606</v>
+        <v>-1.7263405832988736e+000</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="E34">
-        <v>.14851840777308142</v>
+        <v>1.779343559869223e-001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C35">
-        <v>-1.65765752724551</v>
+        <v>-1.7757671779129148e+000</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
       <c r="E35">
-        <v>.19058489755281266</v>
+        <v>1.6935347540341228e-001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>-1.2064941997322796</v>
+        <v>-1.7740211589771628e+000</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
       <c r="E36">
-        <v>.2992445341923408</v>
+        <v>1.696494280725977e-001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C37">
-        <v>-1.7263405832988739</v>
+        <v>-1.209790309153289e+000</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
       <c r="E37">
-        <v>.1779343559869223</v>
+        <v>2.98259815226261e-001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C38">
-        <v>-1.7757671779129143</v>
+        <v>-2.1174359498482964e+000</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
       <c r="E38">
-        <v>.16935347540341225</v>
+        <v>1.203397905293547e-001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39">
-        <v>-1.6831835347816113</v>
+        <v>-1.077320662872732e+000</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
       <c r="E39">
-        <v>.18578159144309736</v>
+        <v>3.4050663658667976e-001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>-1.9070463703536606</v>
+        <v>-1.807395504655212e+000</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
       </c>
       <c r="E40">
-        <v>.14851840777308142</v>
+        <v>1.64080928787773e-001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>-1.6352298292339091</v>
+        <v>-1.7172157021781312e+000</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41">
-        <v>.19490757069347966</v>
+        <v>1.7956541613026022e-001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42">
-        <v>-1.2097903091532887</v>
+        <v>-1.7897044289554998e+000</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
       </c>
       <c r="E42">
-        <v>.29825981522626094</v>
+        <v>1.6700952555250512e-001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43">
-        <v>-2.1174359498482964</v>
+        <v>-1.5880890122241196e+000</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
       <c r="E43">
-        <v>.12033979052935463</v>
+        <v>2.0431568367807688e-001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44">
-        <v>-1.077320662872732</v>
+        <v>-1.7680462395420764e+000</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
       <c r="E44">
-        <v>.3405066365866798</v>
+        <v>1.7066610399131252e-001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45">
-        <v>-1.807395504655211</v>
+        <v>-1.6597536110576876e+000</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
       <c r="E45">
-        <v>.16408092878777306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46">
-        <v>-1.7172157021781318</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46">
-        <v>.17956541613026022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47">
-        <v>-1.7897044289554993</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47">
-        <v>.16700952555250514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48">
-        <v>-1.5880890122241196</v>
-      </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48">
-        <v>.20431568367807684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49">
-        <v>-1.3786286147946516</v>
-      </c>
-      <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49">
-        <v>.25192380084514926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50">
-        <v>-1.7856349907934523</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50">
-        <v>.16769054523312715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51">
-        <v>-1.6597536110576874</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51">
-        <v>.19018583401562628</v>
+        <v>1.9018583401562624e-001</v>
       </c>
     </row>
   </sheetData>
